--- a/php/Опрос.xlsx
+++ b/php/Опрос.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+  <si>
+    <t>Компания</t>
+  </si>
   <si>
     <t>ФИО</t>
   </si>
@@ -150,6 +153,132 @@
   </si>
   <si>
     <t>IT и телеком</t>
+  </si>
+  <si>
+    <t>Тест</t>
+  </si>
+  <si>
+    <t>s21</t>
+  </si>
+  <si>
+    <t>111674, г. Москва, кв-л. 2</t>
+  </si>
+  <si>
+    <t>тест тест тест</t>
+  </si>
+  <si>
+    <t>ООО "Тест"</t>
+  </si>
+  <si>
+    <t>оооо рога</t>
+  </si>
+  <si>
+    <t>твао</t>
+  </si>
+  <si>
+    <t>rrr@ya.ru</t>
+  </si>
+  <si>
+    <t>8(905) 604-0888</t>
+  </si>
+  <si>
+    <t>Образование и воспитание</t>
+  </si>
+  <si>
+    <t>Сварка</t>
+  </si>
+  <si>
+    <t>комент</t>
+  </si>
+  <si>
+    <t>Тест Компания</t>
+  </si>
+  <si>
+    <t>Тест ФИО</t>
+  </si>
+  <si>
+    <t>Верификация</t>
+  </si>
+  <si>
+    <t>Высшее</t>
+  </si>
+  <si>
+    <t>Тест Коментария</t>
+  </si>
+  <si>
+    <t>Тест компания</t>
+  </si>
+  <si>
+    <t>Тест Специальность</t>
+  </si>
+  <si>
+    <t>Коментарии</t>
+  </si>
+  <si>
+    <t>168220, Респ. Коми, р-н. Сыктывдинский, с. Выльгорт, пр-д. 7, тер. СНТ Лымва, д. 162</t>
+  </si>
+  <si>
+    <t>фцвцф</t>
+  </si>
+  <si>
+    <t>8(123) 121-2312</t>
+  </si>
+  <si>
+    <t>фцвфц</t>
+  </si>
+  <si>
+    <t>цфвцф</t>
+  </si>
+  <si>
+    <t>ООО "сладкая киска"</t>
+  </si>
+  <si>
+    <t>Сазанов Мухамед Сазонович</t>
+  </si>
+  <si>
+    <t>razraby@gmail.com</t>
+  </si>
+  <si>
+    <t>8(228) 133-7881</t>
+  </si>
+  <si>
+    <t>170001, обл. Тверская, г. Тверь, ул. Гончаровой</t>
+  </si>
+  <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>Гибкий график</t>
+  </si>
+  <si>
+    <t>начальное</t>
+  </si>
+  <si>
+    <t>Более 3 лет</t>
+  </si>
+  <si>
+    <t>опыта побольше</t>
+  </si>
+  <si>
+    <t>test@mail.ru</t>
+  </si>
+  <si>
+    <t>Торговля и финансы</t>
+  </si>
+  <si>
+    <t>Бухгалтерский учет</t>
+  </si>
+  <si>
+    <t>12333 Р</t>
+  </si>
+  <si>
+    <t>Среднее профессиональное</t>
+  </si>
+  <si>
+    <t>368290, Респ. Дагестан, р-н. Акушинский, с. Алиханмахи, пер. 1</t>
+  </si>
+  <si>
+    <t>123321 Р</t>
   </si>
 </sst>
 </file>
@@ -500,15 +629,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:M1"/>
+      <selection activeCell="A1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -548,8 +677,11 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2"/>
@@ -563,854 +695,880 @@
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2"/>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3"/>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D3"/>
       <c r="E3" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3">
         <v>3333</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
       </c>
       <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
       <c r="M3"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4"/>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4">
         <v>3333</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
-      <c r="L4"/>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
       <c r="M4"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5"/>
       <c r="B5"/>
       <c r="C5"/>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
+      <c r="D5"/>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5">
         <v>3333</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
       </c>
       <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
       <c r="M5"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6"/>
       <c r="B6"/>
       <c r="C6"/>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6"/>
       <c r="E6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6">
         <v>3</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6">
         <v>3333</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
-      <c r="L6"/>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
       <c r="M6"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7"/>
       <c r="B7"/>
       <c r="C7"/>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7"/>
       <c r="E7" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
         <v>3333</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
       <c r="M7"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8"/>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8">
         <v>3333</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
       </c>
       <c r="K8" t="s">
         <v>18</v>
       </c>
-      <c r="L8"/>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
       <c r="M8"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9"/>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9">
         <v>3333</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
       </c>
       <c r="K9" t="s">
         <v>18</v>
       </c>
-      <c r="L9"/>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
       <c r="M9"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
+      <c r="D10"/>
       <c r="E10" t="s">
         <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10">
+      <c r="I10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10">
         <v>2000</v>
-      </c>
-      <c r="J10" t="s">
-        <v>23</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
       </c>
-      <c r="L10"/>
+      <c r="L10" t="s">
+        <v>25</v>
+      </c>
       <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
+      <c r="D11"/>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11">
+      <c r="I11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11">
         <v>2000</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
       </c>
       <c r="K11" t="s">
         <v>24</v>
       </c>
-      <c r="L11"/>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
       <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
+      <c r="D12"/>
       <c r="E12" t="s">
         <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12">
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12">
         <v>2000</v>
-      </c>
-      <c r="J12" t="s">
-        <v>23</v>
       </c>
       <c r="K12" t="s">
         <v>24</v>
       </c>
-      <c r="L12"/>
+      <c r="L12" t="s">
+        <v>25</v>
+      </c>
       <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
+      <c r="D13"/>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13">
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13">
         <v>2000</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
       </c>
-      <c r="L13"/>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
       <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14"/>
       <c r="B14"/>
       <c r="C14"/>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
+      <c r="D14"/>
       <c r="E14" t="s">
         <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14">
         <v>2000</v>
-      </c>
-      <c r="J14" t="s">
-        <v>23</v>
       </c>
       <c r="K14" t="s">
         <v>24</v>
       </c>
-      <c r="L14"/>
+      <c r="L14" t="s">
+        <v>25</v>
+      </c>
       <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15"/>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
+      <c r="D15"/>
       <c r="E15" t="s">
         <v>20</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="H15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15">
         <v>2000</v>
-      </c>
-      <c r="J15" t="s">
-        <v>23</v>
       </c>
       <c r="K15" t="s">
         <v>24</v>
       </c>
-      <c r="L15"/>
+      <c r="L15" t="s">
+        <v>25</v>
+      </c>
       <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
+      <c r="D16"/>
       <c r="E16" t="s">
         <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16">
         <v>2</v>
       </c>
-      <c r="H16" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16">
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16">
         <v>2000</v>
-      </c>
-      <c r="J16" t="s">
-        <v>23</v>
       </c>
       <c r="K16" t="s">
         <v>24</v>
       </c>
-      <c r="L16"/>
+      <c r="L16" t="s">
+        <v>25</v>
+      </c>
       <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
+      <c r="D17"/>
       <c r="E17" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17">
+      <c r="I17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17">
         <v>2000</v>
-      </c>
-      <c r="J17" t="s">
-        <v>23</v>
       </c>
       <c r="K17" t="s">
         <v>24</v>
       </c>
-      <c r="L17"/>
+      <c r="L17" t="s">
+        <v>25</v>
+      </c>
       <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
+      <c r="D18"/>
       <c r="E18" t="s">
         <v>20</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18">
         <v>2</v>
       </c>
-      <c r="H18" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18">
+      <c r="I18" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18">
         <v>2000</v>
-      </c>
-      <c r="J18" t="s">
-        <v>23</v>
       </c>
       <c r="K18" t="s">
         <v>24</v>
       </c>
-      <c r="L18"/>
+      <c r="L18" t="s">
+        <v>25</v>
+      </c>
       <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
+      <c r="D19"/>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19">
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19">
         <v>2000</v>
-      </c>
-      <c r="J19" t="s">
-        <v>23</v>
       </c>
       <c r="K19" t="s">
         <v>24</v>
       </c>
-      <c r="L19"/>
+      <c r="L19" t="s">
+        <v>25</v>
+      </c>
       <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
+      <c r="D20"/>
       <c r="E20" t="s">
         <v>20</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20">
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20">
         <v>2000</v>
-      </c>
-      <c r="J20" t="s">
-        <v>23</v>
       </c>
       <c r="K20" t="s">
         <v>24</v>
       </c>
-      <c r="L20"/>
+      <c r="L20" t="s">
+        <v>25</v>
+      </c>
       <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
-      <c r="D21" t="s">
-        <v>19</v>
-      </c>
+      <c r="D21"/>
       <c r="E21" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21">
         <v>2</v>
       </c>
-      <c r="H21" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21">
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21">
         <v>2000</v>
-      </c>
-      <c r="J21" t="s">
-        <v>23</v>
       </c>
       <c r="K21" t="s">
         <v>24</v>
       </c>
-      <c r="L21"/>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
       <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>20</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22">
         <v>2</v>
       </c>
-      <c r="H22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22">
+      <c r="I22" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22">
         <v>2000</v>
-      </c>
-      <c r="J22" t="s">
-        <v>23</v>
       </c>
       <c r="K22" t="s">
         <v>24</v>
       </c>
-      <c r="L22"/>
+      <c r="L22" t="s">
+        <v>25</v>
+      </c>
       <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
+      <c r="D23"/>
       <c r="E23" t="s">
         <v>20</v>
       </c>
       <c r="F23" t="s">
         <v>21</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23">
         <v>2</v>
       </c>
-      <c r="H23" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23">
+      <c r="I23" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23">
         <v>2000</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
       </c>
       <c r="K23" t="s">
         <v>24</v>
       </c>
-      <c r="L23"/>
+      <c r="L23" t="s">
+        <v>25</v>
+      </c>
       <c r="M23"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
+      <c r="D24"/>
       <c r="E24" t="s">
         <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24">
         <v>2</v>
       </c>
-      <c r="H24" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24">
+      <c r="I24" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24">
         <v>2000</v>
-      </c>
-      <c r="J24" t="s">
-        <v>23</v>
       </c>
       <c r="K24" t="s">
         <v>24</v>
       </c>
-      <c r="L24"/>
+      <c r="L24" t="s">
+        <v>25</v>
+      </c>
       <c r="M24"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
+      <c r="D25"/>
       <c r="E25" t="s">
         <v>20</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25">
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25">
         <v>2000</v>
-      </c>
-      <c r="J25" t="s">
-        <v>23</v>
       </c>
       <c r="K25" t="s">
         <v>24</v>
       </c>
-      <c r="L25"/>
+      <c r="L25" t="s">
+        <v>25</v>
+      </c>
       <c r="M25"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26"/>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
+      <c r="D26"/>
       <c r="E26" t="s">
         <v>20</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26">
+      <c r="I26" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26">
         <v>200023</v>
-      </c>
-      <c r="J26" t="s">
-        <v>23</v>
       </c>
       <c r="K26" t="s">
         <v>24</v>
       </c>
-      <c r="L26"/>
+      <c r="L26" t="s">
+        <v>25</v>
+      </c>
       <c r="M26"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27"/>
       <c r="B27"/>
       <c r="C27"/>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
+      <c r="D27"/>
       <c r="E27" t="s">
         <v>20</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
         <v>2</v>
       </c>
-      <c r="H27" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27">
+      <c r="I27" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27">
         <v>200023</v>
-      </c>
-      <c r="J27" t="s">
-        <v>23</v>
       </c>
       <c r="K27" t="s">
         <v>24</v>
       </c>
-      <c r="L27"/>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
       <c r="M27"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
-      <c r="D28" t="s">
-        <v>19</v>
-      </c>
+      <c r="D28"/>
       <c r="E28" t="s">
         <v>20</v>
       </c>
       <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28">
         <v>2</v>
       </c>
-      <c r="H28" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28">
+      <c r="I28" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28">
         <v>200023</v>
-      </c>
-      <c r="J28" t="s">
-        <v>23</v>
       </c>
       <c r="K28" t="s">
         <v>24</v>
       </c>
-      <c r="L28"/>
+      <c r="L28" t="s">
+        <v>25</v>
+      </c>
       <c r="M28"/>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" t="s">
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29"/>
+      <c r="B29" t="s">
         <v>26</v>
       </c>
-      <c r="D29"/>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29"/>
-      <c r="G29">
+      <c r="C29"/>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29"/>
+      <c r="H29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>17</v>
+      </c>
       <c r="J29"/>
-      <c r="K29" t="s">
+      <c r="K29"/>
+      <c r="L29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30"/>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
         <v>27</v>
-      </c>
-      <c r="L29"/>
-      <c r="M29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>30</v>
       </c>
       <c r="E30" t="s">
         <v>31</v>
@@ -1418,14 +1576,14 @@
       <c r="F30" t="s">
         <v>32</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30">
         <v>6</v>
       </c>
-      <c r="H30" t="s">
-        <v>22</v>
-      </c>
       <c r="I30" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
         <v>34</v>
@@ -1439,124 +1597,131 @@
       <c r="M30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31" t="s">
+      <c r="N30" t="s">
         <v>38</v>
       </c>
-      <c r="D31"/>
-      <c r="E31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31"/>
-      <c r="G31">
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31"/>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31"/>
+      <c r="H31">
         <v>5</v>
       </c>
-      <c r="H31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31"/>
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
       <c r="J31"/>
-      <c r="K31" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31"/>
-      <c r="M31" t="s">
+      <c r="K31"/>
+      <c r="L31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32"/>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32"/>
-      <c r="G32">
+      <c r="M31"/>
+      <c r="N31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32"/>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32"/>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32"/>
+      <c r="H32">
         <v>1</v>
       </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32"/>
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
       <c r="J32"/>
-      <c r="K32" t="s">
-        <v>27</v>
-      </c>
-      <c r="L32"/>
-      <c r="M32" t="s">
+      <c r="K32"/>
+      <c r="L32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33"/>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33"/>
-      <c r="G33">
+      <c r="M32"/>
+      <c r="N32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33"/>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33"/>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33"/>
+      <c r="F33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33"/>
+      <c r="H33">
         <v>5</v>
       </c>
-      <c r="H33" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33"/>
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
       <c r="J33"/>
-      <c r="K33" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33"/>
-      <c r="M33" t="s">
+      <c r="K33"/>
+      <c r="L33" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34"/>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34"/>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34"/>
-      <c r="G34">
+      <c r="M33"/>
+      <c r="N33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34"/>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34"/>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34"/>
+      <c r="H34">
         <v>5</v>
       </c>
-      <c r="H34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34"/>
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
       <c r="J34"/>
-      <c r="K34" t="s">
-        <v>27</v>
-      </c>
-      <c r="L34"/>
-      <c r="M34" t="s">
+      <c r="K34"/>
+      <c r="L34" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="M34"/>
+      <c r="N34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35"/>
@@ -1570,8 +1735,9 @@
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36"/>
       <c r="B36"/>
       <c r="C36"/>
@@ -1585,8 +1751,9 @@
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37"/>
       <c r="B37"/>
       <c r="C37"/>
@@ -1600,13 +1767,12 @@
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38"/>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>40</v>
@@ -1615,116 +1781,121 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
-      </c>
-      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="G38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38">
         <v>2</v>
       </c>
-      <c r="H38" t="s">
-        <v>22</v>
-      </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="L38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39"/>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>40</v>
+      </c>
+      <c r="H39">
         <v>1</v>
       </c>
-      <c r="H39" t="s">
-        <v>16</v>
-      </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L39" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40"/>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40">
+        <v>15</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40">
         <v>4</v>
       </c>
-      <c r="H40" t="s">
-        <v>16</v>
-      </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>40</v>
+      </c>
+      <c r="N40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -1738,8 +1909,9 @@
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42"/>
       <c r="B42"/>
       <c r="C42"/>
@@ -1753,8 +1925,9 @@
       <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43"/>
@@ -1768,8 +1941,9 @@
       <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44"/>
       <c r="B44"/>
       <c r="C44"/>
@@ -1783,8 +1957,9 @@
       <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45"/>
       <c r="B45"/>
       <c r="C45"/>
@@ -1798,41 +1973,43 @@
       <c r="K45"/>
       <c r="L45"/>
       <c r="M45"/>
-    </row>
-    <row r="46" spans="1:13">
-      <c r="A46" t="s">
-        <v>39</v>
-      </c>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46"/>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D46" t="s">
         <v>41</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46"/>
-      <c r="G46">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46"/>
+      <c r="H46">
         <v>2</v>
       </c>
-      <c r="H46" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46"/>
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
       <c r="J46"/>
-      <c r="K46" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46"/>
-      <c r="M46" t="s">
+      <c r="K46"/>
+      <c r="L46" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="M46"/>
+      <c r="N46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
@@ -1846,6 +2023,851 @@
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48"/>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48"/>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50"/>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50"/>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M50"/>
+      <c r="N50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51"/>
+      <c r="B51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51"/>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51" t="s">
+        <v>28</v>
+      </c>
+      <c r="M51"/>
+      <c r="N51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52"/>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52"/>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52"/>
+      <c r="H52">
+        <v>5</v>
+      </c>
+      <c r="I52" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52"/>
+      <c r="N52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53"/>
+      <c r="H53">
+        <v>5</v>
+      </c>
+      <c r="I53" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53" t="s">
+        <v>28</v>
+      </c>
+      <c r="M53"/>
+      <c r="N53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+      <c r="I54" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54">
+        <v>4000</v>
+      </c>
+      <c r="K54" t="s">
+        <v>24</v>
+      </c>
+      <c r="L54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M54" t="s">
+        <v>57</v>
+      </c>
+      <c r="N54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>15</v>
+      </c>
+      <c r="G55" t="s">
+        <v>60</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J55">
+        <v>50000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>61</v>
+      </c>
+      <c r="L55" t="s">
+        <v>36</v>
+      </c>
+      <c r="M55" t="s">
+        <v>62</v>
+      </c>
+      <c r="N55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G56" t="s">
+        <v>64</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>23</v>
+      </c>
+      <c r="J56">
+        <v>50000</v>
+      </c>
+      <c r="K56" t="s">
+        <v>61</v>
+      </c>
+      <c r="L56" t="s">
+        <v>36</v>
+      </c>
+      <c r="M56" t="s">
+        <v>65</v>
+      </c>
+      <c r="N56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>15</v>
+      </c>
+      <c r="G57" t="s">
+        <v>64</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+      <c r="I57" t="s">
+        <v>23</v>
+      </c>
+      <c r="J57">
+        <v>50000</v>
+      </c>
+      <c r="K57" t="s">
+        <v>61</v>
+      </c>
+      <c r="L57" t="s">
+        <v>36</v>
+      </c>
+      <c r="M57" t="s">
+        <v>65</v>
+      </c>
+      <c r="N57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>3</v>
+      </c>
+      <c r="H58">
+        <v>4</v>
+      </c>
+      <c r="I58" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58">
+        <v>50000</v>
+      </c>
+      <c r="K58" t="s">
+        <v>61</v>
+      </c>
+      <c r="L58" t="s">
+        <v>19</v>
+      </c>
+      <c r="M58">
+        <v>12321</v>
+      </c>
+      <c r="N58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59">
+        <v>4</v>
+      </c>
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59" t="s">
+        <v>28</v>
+      </c>
+      <c r="M59"/>
+      <c r="N59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B60"/>
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" t="s">
+        <v>42</v>
+      </c>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60">
+        <v>4</v>
+      </c>
+      <c r="I60" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60" t="s">
+        <v>28</v>
+      </c>
+      <c r="M60"/>
+      <c r="N60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61"/>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" t="s">
+        <v>42</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61" t="s">
+        <v>28</v>
+      </c>
+      <c r="M61"/>
+      <c r="N61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62"/>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62"/>
+      <c r="N62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63"/>
+      <c r="C63" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" t="s">
+        <v>42</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63">
+        <v>4</v>
+      </c>
+      <c r="I63" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63" t="s">
+        <v>28</v>
+      </c>
+      <c r="M63"/>
+      <c r="N63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64"/>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64" t="s">
+        <v>28</v>
+      </c>
+      <c r="M64"/>
+      <c r="N64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" t="s">
+        <v>42</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65">
+        <v>4</v>
+      </c>
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65" t="s">
+        <v>28</v>
+      </c>
+      <c r="M65"/>
+      <c r="N65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>44</v>
+      </c>
+      <c r="D66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66" t="s">
+        <v>28</v>
+      </c>
+      <c r="M66"/>
+      <c r="N66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+      <c r="D67" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" t="s">
+        <v>42</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67">
+        <v>4</v>
+      </c>
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67" t="s">
+        <v>28</v>
+      </c>
+      <c r="M67"/>
+      <c r="N67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" t="s">
+        <v>71</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="C68" t="s">
+        <v>73</v>
+      </c>
+      <c r="D68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E68" t="s">
+        <v>75</v>
+      </c>
+      <c r="F68" t="s">
+        <v>21</v>
+      </c>
+      <c r="G68" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>77</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>78</v>
+      </c>
+      <c r="L68" t="s">
+        <v>79</v>
+      </c>
+      <c r="M68" t="s">
+        <v>80</v>
+      </c>
+      <c r="N68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" t="s">
+        <v>26</v>
+      </c>
+      <c r="B69" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>77</v>
+      </c>
+      <c r="J69" t="s">
+        <v>84</v>
+      </c>
+      <c r="K69" t="s">
+        <v>85</v>
+      </c>
+      <c r="L69" t="s">
+        <v>25</v>
+      </c>
+      <c r="M69"/>
+      <c r="N69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+      <c r="F70" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>23</v>
+      </c>
+      <c r="J70" t="s">
+        <v>87</v>
+      </c>
+      <c r="K70" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" t="s">
+        <v>79</v>
+      </c>
+      <c r="M70"/>
+      <c r="N70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" t="s">
+        <v>81</v>
+      </c>
+      <c r="D71" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71">
+        <v>5</v>
+      </c>
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71" t="s">
+        <v>28</v>
+      </c>
+      <c r="M71"/>
+      <c r="N71" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
